--- a/medicine/Mort/Cubiculum/Cubiculum.xlsx
+++ b/medicine/Mort/Cubiculum/Cubiculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cubiculum est, en latin, une chambre. Le terme désigne particulièrement les chambres funéraires dans les catacombes romaines, véritables salles sépulcrales qui contiennent souvent un arcosolium et des loculi.
 Le terme est utilisé également pour désigner au Grand Palais de Constantinople la chambre impériale dont l'accès était réservé aux eunuques pendant la période byzantine.
